--- a/tabella confronti multipli citokine.xlsx
+++ b/tabella confronti multipli citokine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="215">
   <si>
     <t xml:space="preserve">Bootstraped 95%CI</t>
   </si>
@@ -100,23 +100,7 @@
     <t xml:space="preserve">-58.31</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">LPS (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1534323.74)</t>
-    </r>
+    <t xml:space="preserve">LPS (1534323.74)</t>
   </si>
   <si>
     <t xml:space="preserve">3667.16</t>
@@ -179,23 +163,7 @@
     <t xml:space="preserve">-24.44</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">LPS (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1752464.95)</t>
-    </r>
+    <t xml:space="preserve">LPS (1752464.95)</t>
   </si>
   <si>
     <t xml:space="preserve">1752454.27</t>
@@ -658,6 +626,45 @@
   </si>
   <si>
     <t xml:space="preserve">104.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bootstraped P-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staf(1h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AsaiapHM4 (1174678.6 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium (723546.2 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asaia WSP (1342642.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSP (550583.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staf(2h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AsaiapHM4 ( 2382958 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium ( 1840500 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asaia WSP (3120625)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSP ( 1261500 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium ( 1840500  )</t>
   </si>
 </sst>
 </file>
@@ -737,7 +744,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -758,18 +765,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -779,22 +794,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40:G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,7 +965,7 @@
       <c r="B8" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -974,7 +988,7 @@
       <c r="B9" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -997,7 +1011,7 @@
       <c r="B10" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1086,7 +1100,7 @@
       <c r="A14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="0" t="s">
@@ -1227,7 +1241,7 @@
       <c r="B20" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1250,7 +1264,7 @@
       <c r="B21" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1273,7 +1287,7 @@
       <c r="B22" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1656,6 +1670,177 @@
       <c r="G38" s="3" t="s">
         <v>201</v>
       </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>451000</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-168000</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>1020000</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>619000</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>-47500</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>1310000</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-173000</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-690000</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>385000</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>0.572</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>542000</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>-1030000</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>2290000</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>0.542</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>1280000</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>-478000</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>3190000</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>-579000</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>-1920000</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>-1920000</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="4"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="6"/>
+      <c r="F52" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1665,8 +1850,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Pagina &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>